--- a/standard_formats/fishglob_data_columns.xlsx
+++ b/standard_formats/fishglob_data_columns.xlsx
@@ -5,23 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/auroremaureaud/Documents/FISHGLOB/fishglob/standard_formats/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/auroremaureaud/Documents/FISHGLOB/integrated_fishglob_surveys/standard_formats/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D59695-ECE4-6045-A2B1-ABD3F66682BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E4811AC-DBF7-8240-9457-DB3C09AE11D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fishglob data format" sheetId="1" r:id="rId1"/>
-    <sheet name="format requested (BM)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="101">
   <si>
     <t>Column name fishglob</t>
   </si>
@@ -197,9 +196,6 @@
     <t>number of individuals sampled</t>
   </si>
   <si>
-    <t>num_h</t>
-  </si>
-  <si>
     <t>num/haul_dur</t>
   </si>
   <si>
@@ -221,9 +217,6 @@
     <t>weight of sampled individuals</t>
   </si>
   <si>
-    <t>wgt_h</t>
-  </si>
-  <si>
     <t>wgt/haul_dur</t>
   </si>
   <si>
@@ -234,120 +227,6 @@
   </si>
   <si>
     <t>wgt/area_swept</t>
-  </si>
-  <si>
-    <t>haul_code</t>
-  </si>
-  <si>
-    <t>station_name</t>
-  </si>
-  <si>
-    <t>latitude_beginning</t>
-  </si>
-  <si>
-    <t>longitude_beginning</t>
-  </si>
-  <si>
-    <t>depth_beginning</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>haul_duration(min)</t>
-  </si>
-  <si>
-    <t>swept_area(km2)</t>
-  </si>
-  <si>
-    <t>Next_columns for_species_abundance_to_be_filled_using_WORMS_code(if_possible)</t>
-  </si>
-  <si>
-    <t>species1</t>
-  </si>
-  <si>
-    <t>species2</t>
-  </si>
-  <si>
-    <t>etc.</t>
-  </si>
-  <si>
-    <t>1994FRALEU01</t>
-  </si>
-  <si>
-    <t>C101</t>
-  </si>
-  <si>
-    <t>42.2892</t>
-  </si>
-  <si>
-    <t>0.007238221</t>
-  </si>
-  <si>
-    <t>1994FRALEU02</t>
-  </si>
-  <si>
-    <t>C102</t>
-  </si>
-  <si>
-    <t>42.459</t>
-  </si>
-  <si>
-    <t>0.006954987</t>
-  </si>
-  <si>
-    <t>1994FRALEU03</t>
-  </si>
-  <si>
-    <t>C103</t>
-  </si>
-  <si>
-    <t>42.5983</t>
-  </si>
-  <si>
-    <t>0.0059794</t>
-  </si>
-  <si>
-    <t>1994FRALEU04</t>
-  </si>
-  <si>
-    <t>C201</t>
-  </si>
-  <si>
-    <t>41.4743</t>
-  </si>
-  <si>
-    <t>0.1123</t>
-  </si>
-  <si>
-    <t>1994FRALEU05</t>
-  </si>
-  <si>
-    <t>41.4748</t>
-  </si>
-  <si>
-    <t>0.1127</t>
-  </si>
-  <si>
-    <t>1994FRALEU06</t>
-  </si>
-  <si>
-    <t>41.4755</t>
-  </si>
-  <si>
-    <t>0.066091</t>
-  </si>
-  <si>
-    <t>1994FRALEU07</t>
-  </si>
-  <si>
-    <t>41.4757</t>
-  </si>
-  <si>
-    <t>91.5</t>
-  </si>
-  <si>
-    <t>0.0551232</t>
   </si>
   <si>
     <r>
@@ -449,25 +328,22 @@
   <si>
     <t>Datasets version from source</t>
   </si>
+  <si>
+    <t>num_cpua</t>
+  </si>
+  <si>
+    <t>wgt_cpua</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="m\.yyyy"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
-  </numFmts>
-  <fonts count="3">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="&quot;Times New Roman&quot;"/>
     </font>
     <font>
       <sz val="10"/>
@@ -483,7 +359,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -491,39 +367,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -745,16 +594,16 @@
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21.6640625" customWidth="1"/>
     <col min="2" max="2" width="41.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13">
+    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -768,7 +617,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -776,32 +625,32 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -812,7 +661,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -823,7 +672,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -834,7 +683,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -845,7 +694,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -856,7 +705,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -867,7 +716,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -878,7 +727,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1">
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -889,7 +738,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1">
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -900,7 +749,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1">
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -911,7 +760,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1">
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -922,7 +771,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1">
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -933,12 +782,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1">
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c r="C17" t="s">
         <v>33</v>
@@ -947,12 +796,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1">
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c r="C18" t="s">
         <v>33</v>
@@ -961,12 +810,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1">
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="C19" t="s">
         <v>33</v>
@@ -975,7 +824,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1">
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -989,7 +838,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1">
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -1000,7 +849,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1">
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -1014,7 +863,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1">
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>47</v>
       </c>
@@ -1028,7 +877,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1">
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>50</v>
       </c>
@@ -1042,7 +891,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1">
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -1056,101 +905,101 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1">
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" t="s">
         <v>58</v>
       </c>
-      <c r="B26" t="s">
-        <v>133</v>
-      </c>
-      <c r="C26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1">
+    </row>
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27" t="s">
         <v>60</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" t="s">
         <v>61</v>
       </c>
-      <c r="C27" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" t="s">
+    </row>
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A28" t="s">
+      <c r="B28" t="s">
         <v>63</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" t="s">
         <v>64</v>
       </c>
-      <c r="C28" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1">
+    </row>
+    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>66</v>
       </c>
       <c r="B29" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="C29" t="s">
         <v>33</v>
       </c>
       <c r="D29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A30" t="s">
+      <c r="C30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" t="s">
         <v>68</v>
       </c>
-      <c r="B30" t="s">
-        <v>69</v>
-      </c>
-      <c r="C30" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" t="s">
+    </row>
+    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A31" t="s">
-        <v>110</v>
-      </c>
       <c r="C31" t="s">
         <v>5</v>
       </c>
       <c r="D31" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" customHeight="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
       </c>
       <c r="D32" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" customHeight="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -1159,7 +1008,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15.75" customHeight="1">
+    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>53</v>
       </c>
@@ -1170,92 +1019,92 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.75" customHeight="1">
+    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="C35" t="s">
         <v>33</v>
       </c>
       <c r="D35" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" customHeight="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
       </c>
       <c r="D36" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15.75" customHeight="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
       </c>
       <c r="D37" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15.75" customHeight="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
       </c>
       <c r="D38" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15.75" customHeight="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
       </c>
       <c r="D39" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15.75" customHeight="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
       </c>
       <c r="D40" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="15.75" customHeight="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
       </c>
       <c r="D41" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="15.75" customHeight="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
       </c>
       <c r="D42" t="s">
-        <v>130</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1264,334 +1113,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:M8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
-  <sheetData>
-    <row r="1" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D2" s="3">
-        <v>1403507</v>
-      </c>
-      <c r="E2" s="2">
-        <v>17</v>
-      </c>
-      <c r="F2" s="2">
-        <v>1994</v>
-      </c>
-      <c r="G2" s="4">
-        <v>34481</v>
-      </c>
-      <c r="H2" s="2">
-        <v>30</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0</v>
-      </c>
-      <c r="K2" s="2">
-        <v>24</v>
-      </c>
-      <c r="L2" s="2">
-        <v>0</v>
-      </c>
-      <c r="M2" s="2"/>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1387072</v>
-      </c>
-      <c r="E3" s="2">
-        <v>24</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1994</v>
-      </c>
-      <c r="G3" s="4">
-        <v>34482</v>
-      </c>
-      <c r="H3" s="2">
-        <v>30</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2">
-        <v>14</v>
-      </c>
-      <c r="L3" s="2">
-        <v>0</v>
-      </c>
-      <c r="M3" s="2"/>
-    </row>
-    <row r="4" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1243165</v>
-      </c>
-      <c r="E4" s="2">
-        <v>16</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1994</v>
-      </c>
-      <c r="G4" s="4">
-        <v>34483</v>
-      </c>
-      <c r="H4" s="2">
-        <v>30</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0</v>
-      </c>
-      <c r="K4" s="2">
-        <v>26</v>
-      </c>
-      <c r="L4" s="2">
-        <v>0</v>
-      </c>
-      <c r="M4" s="2"/>
-    </row>
-    <row r="5" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A5" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1043012</v>
-      </c>
-      <c r="E5" s="2">
-        <v>90</v>
-      </c>
-      <c r="F5" s="2">
-        <v>2012</v>
-      </c>
-      <c r="G5" s="4">
-        <v>41063</v>
-      </c>
-      <c r="H5" s="2">
-        <v>50</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2">
-        <v>3300</v>
-      </c>
-      <c r="L5" s="2">
-        <v>0</v>
-      </c>
-      <c r="M5" s="2"/>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A6" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1041917</v>
-      </c>
-      <c r="E6" s="2">
-        <v>91</v>
-      </c>
-      <c r="F6" s="2">
-        <v>2008</v>
-      </c>
-      <c r="G6" s="4">
-        <v>39593</v>
-      </c>
-      <c r="H6" s="2">
-        <v>60</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0</v>
-      </c>
-      <c r="L6" s="2">
-        <v>0</v>
-      </c>
-      <c r="M6" s="2"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A7" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1039360</v>
-      </c>
-      <c r="E7" s="2">
-        <v>91</v>
-      </c>
-      <c r="F7" s="2">
-        <v>2010</v>
-      </c>
-      <c r="G7" s="4">
-        <v>40339</v>
-      </c>
-      <c r="H7" s="2">
-        <v>30</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2">
-        <v>81</v>
-      </c>
-      <c r="L7" s="2">
-        <v>0</v>
-      </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A8" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1044108</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F8" s="2">
-        <v>2007</v>
-      </c>
-      <c r="G8" s="4">
-        <v>39239</v>
-      </c>
-      <c r="H8" s="2">
-        <v>30</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="J8" s="2">
-        <v>0</v>
-      </c>
-      <c r="K8" s="2">
-        <v>0</v>
-      </c>
-      <c r="L8" s="2">
-        <v>0</v>
-      </c>
-      <c r="M8" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/standard_formats/fishglob_data_columns.xlsx
+++ b/standard_formats/fishglob_data_columns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/auroremaureaud/Documents/FISHGLOB/integrated_fishglob_surveys/standard_formats/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E4811AC-DBF7-8240-9457-DB3C09AE11D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6054BFE-68F1-5749-BA77-01F81F0A90ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="103">
   <si>
     <t>Column name fishglob</t>
   </si>
@@ -333,6 +333,12 @@
   </si>
   <si>
     <t>wgt_cpua</t>
+  </si>
+  <si>
+    <t>survey_unit</t>
+  </si>
+  <si>
+    <t>combination of survey with quarter or season (useful for BITS, NS-IBTS, SWC-IBTS, NEUS, SEUS, SCS, GMEX)</t>
   </si>
 </sst>
 </file>
@@ -591,10 +597,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1107,6 +1113,17 @@
         <v>90</v>
       </c>
     </row>
+    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" t="s">
+        <v>102</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" location="gid=0" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/standard_formats/fishglob_data_columns.xlsx
+++ b/standard_formats/fishglob_data_columns.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/auroremaureaud/Documents/FISHGLOB/integrated_fishglob_surveys/standard_formats/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/auroremaureaud/Documents/FISHGLOB/FishGlob_data/standard_formats/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6054BFE-68F1-5749-BA77-01F81F0A90ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F75AEC0D-7CA2-FC48-A08F-9EB7BCFE6886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -305,9 +305,6 @@
     <t>Worms rank</t>
   </si>
   <si>
-    <t>kg/min</t>
-  </si>
-  <si>
     <t>degrees, Geographic Coordinate System, WGS84</t>
   </si>
   <si>
@@ -339,13 +336,16 @@
   </si>
   <si>
     <t>combination of survey with quarter or season (useful for BITS, NS-IBTS, SWC-IBTS, NEUS, SEUS, SCS, GMEX)</t>
+  </si>
+  <si>
+    <t>kg/hour</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -355,6 +355,12 @@
       <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -377,8 +383,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -600,7 +607,7 @@
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -636,24 +643,24 @@
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -793,7 +800,7 @@
         <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" t="s">
         <v>33</v>
@@ -807,7 +814,7 @@
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C18" t="s">
         <v>33</v>
@@ -821,7 +828,7 @@
         <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C19" t="s">
         <v>33</v>
@@ -916,7 +923,7 @@
         <v>59</v>
       </c>
       <c r="B26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -927,7 +934,7 @@
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B27" t="s">
         <v>60</v>
@@ -957,8 +964,8 @@
       <c r="A29" t="s">
         <v>66</v>
       </c>
-      <c r="B29" t="s">
-        <v>91</v>
+      <c r="B29" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="C29" t="s">
         <v>33</v>
@@ -969,9 +976,9 @@
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>100</v>
-      </c>
-      <c r="B30" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C30" t="s">
@@ -1115,13 +1122,13 @@
     </row>
     <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
+        <v>100</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" t="s">
         <v>101</v>
-      </c>
-      <c r="C43" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>
